--- a/Solutions/SQL EDA Questions.xlsx
+++ b/Solutions/SQL EDA Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="844" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="844"/>
   </bookViews>
   <sheets>
     <sheet name="All Questions" sheetId="1" r:id="rId1"/>
@@ -29,17 +29,55 @@
     <sheet name="EQ11" sheetId="14" r:id="rId15"/>
     <sheet name="EQ12" sheetId="15" r:id="rId16"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'EQ5'!$H$23:$I$23</definedName>
+    <definedName name="_xlcn.WorksheetConnection_SQLEDAQuestions.xlsxTable21" hidden="1">Table2[]</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId17"/>
+    <pivotCache cacheId="38" r:id="rId18"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Table2" name="Table2" connection="WorksheetConnection_SQL EDA Questions.xlsx!Table2"/>
+        </x15:modelTables>
+      </x15:dataModel>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" name="WorksheetConnection_SQL EDA Questions.xlsx!Table2" type="102" refreshedVersion="6" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Table2" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_SQLEDAQuestions.xlsxTable21"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7883" uniqueCount="2985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7944" uniqueCount="2991">
   <si>
     <t>1. What are the purchasing patterns of new customers versus repeat customers?</t>
   </si>
@@ -7097,9 +7135,6 @@
     <t>Lethbridge</t>
   </si>
   <si>
-    <t xml:space="preserve">8.Total film categories by  location </t>
-  </si>
-  <si>
     <t xml:space="preserve">8.Total film categories by location </t>
   </si>
   <si>
@@ -8994,6 +9029,27 @@
   </si>
   <si>
     <t>12.Total Films available in inventory by rating</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Total_location</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Count of name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of films </t>
   </si>
 </sst>
 </file>
@@ -9045,7 +9101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9064,8 +9120,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -9190,12 +9252,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9203,15 +9292,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9241,14 +9321,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9259,29 +9339,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -9301,15 +9366,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9681,8 +9763,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>44451</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368301</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>156515</xdr:rowOff>
     </xdr:to>
@@ -9873,6 +9955,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657601" y="1104900"/>
+          <a:ext cx="3632199" cy="1864529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9972,8 +10092,8 @@
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>482189</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>253589</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
@@ -10009,20 +10129,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10035,8 +10155,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1473200"/>
-          <a:ext cx="4870450" cy="2679700"/>
+          <a:off x="5010150" y="139701"/>
+          <a:ext cx="3397250" cy="3001198"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10046,6 +10166,582 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Hemant Goswami" refreshedDate="45383.05621574074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="32">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table7"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="name" numFmtId="0">
+      <sharedItems count="16">
+        <s v="Sports"/>
+        <s v="Animation"/>
+        <s v="Action"/>
+        <s v="Documentary"/>
+        <s v="Sci-Fi"/>
+        <s v="Drama"/>
+        <s v="Family"/>
+        <s v="Foreign"/>
+        <s v="Games"/>
+        <s v="New"/>
+        <s v="Comedy"/>
+        <s v="Children"/>
+        <s v="Classics"/>
+        <s v="Horror"/>
+        <s v="Music"/>
+        <s v="Travel"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="city" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Woodridge"/>
+        <s v="Lethbridge"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Total_location" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="181" count="28">
+        <n v="181"/>
+        <n v="174"/>
+        <n v="169"/>
+        <n v="164"/>
+        <n v="163"/>
+        <n v="162"/>
+        <n v="161"/>
+        <n v="157"/>
+        <n v="153"/>
+        <n v="149"/>
+        <n v="148"/>
+        <n v="147"/>
+        <n v="143"/>
+        <n v="142"/>
+        <n v="140"/>
+        <n v="139"/>
+        <n v="138"/>
+        <n v="136"/>
+        <n v="131"/>
+        <n v="130"/>
+        <n v="129"/>
+        <n v="128"/>
+        <n v="127"/>
+        <n v="122"/>
+        <n v="121"/>
+        <n v="114"/>
+        <n v="112"/>
+        <n v="110"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Hemant Goswami" refreshedDate="45383.08977233796" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="2">
+    <cacheField name="[Table2].[name].[name]" caption="name" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="16">
+        <s v="Action"/>
+        <s v="Animation"/>
+        <s v="Children"/>
+        <s v="Classics"/>
+        <s v="Comedy"/>
+        <s v="Documentary"/>
+        <s v="Drama"/>
+        <s v="Family"/>
+        <s v="Foreign"/>
+        <s v="Games"/>
+        <s v="Horror"/>
+        <s v="Music"/>
+        <s v="New"/>
+        <s v="Sci-Fi"/>
+        <s v="Sports"/>
+        <s v="Travel"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Count of name]" caption="Count of name" numFmtId="0" hierarchy="5" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="6">
+    <cacheHierarchy uniqueName="[Table2].[title]" caption="title" attribute="1" defaultMemberUniqueName="[Table2].[title].[All]" allUniqueName="[Table2].[title].[All]" dimensionUniqueName="[Table2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table2].[description]" caption="description" attribute="1" defaultMemberUniqueName="[Table2].[description].[All]" allUniqueName="[Table2].[description].[All]" dimensionUniqueName="[Table2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table2].[name]" caption="name" attribute="1" defaultMemberUniqueName="[Table2].[name].[All]" allUniqueName="[Table2].[name].[All]" dimensionUniqueName="[Table2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table2]" caption="__XL_Count Table2" measure="1" displayFolder="" measureGroup="Table2" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Count of name]" caption="Count of name" measure="1" displayFolder="" measureGroup="Table2" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Table2" uniqueName="[Table2]" caption="Table2"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Table2" caption="Table2"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="32">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="27"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E20:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="17">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" measureFilter="1">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="29">
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total_location" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="10" filterVal="10"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E23:F40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="6">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="2"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_SQL EDA Questions.xlsx!Table2">
+        <x15:activeTabTopLevelEntity name="[Table2]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10063,6 +10759,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A15:C47" totalsRowShown="0">
   <autoFilter ref="A15:C47"/>
+  <sortState ref="A16:C47">
+    <sortCondition descending="1" ref="C15:C47"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="name"/>
     <tableColumn id="2" name="city"/>
@@ -10385,7 +11084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -10399,353 +11098,349 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="13" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="10" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="16" t="s">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="16" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="1" t="s">
         <v>2036</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="16" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="1" t="s">
         <v>2044</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="16" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="1" t="s">
         <v>2064</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="16" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="1" t="s">
         <v>2323</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="16" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="1" t="s">
         <v>2353</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-    </row>
-    <row r="10" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="16" t="s">
-        <v>2354</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="16" t="s">
-        <v>2360</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="16" t="s">
-        <v>2374</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="16" t="s">
-        <v>2984</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="18"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="16">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="1">
         <v>13</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="18"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="16">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="1">
         <v>14</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="18"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="22">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="4">
         <v>15</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="24"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A16:G16"/>
@@ -10762,12 +11457,16 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10779,22 +11478,22 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>2064</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -10835,7 +11534,7 @@
   <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10847,16 +11546,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>2323</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -13720,16 +14419,16 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>2352</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -13811,40 +14510,40 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>2354</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="A1" s="36" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
   </sheetData>
@@ -13861,56 +14560,56 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>2360</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
   </sheetData>
@@ -13936,45 +14635,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>2374</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -13982,12 +14681,12 @@
         <v>2348</v>
       </c>
       <c r="B10" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -13995,7 +14694,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -14003,7 +14702,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -14011,7 +14710,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -14019,7 +14718,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -14027,7 +14726,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -14035,7 +14734,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -14043,7 +14742,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -14051,7 +14750,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -14059,7 +14758,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -14067,7 +14766,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -14075,7 +14774,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -14083,7 +14782,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -14091,7 +14790,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -14099,7 +14798,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -14107,7 +14806,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -14115,7 +14814,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -14123,7 +14822,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -14131,7 +14830,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -14139,7 +14838,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -14147,7 +14846,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -14155,7 +14854,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -14163,7 +14862,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -14171,7 +14870,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -14179,7 +14878,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -14187,7 +14886,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -14195,7 +14894,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -14203,7 +14902,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -14211,7 +14910,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -14219,7 +14918,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -14227,7 +14926,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -14235,7 +14934,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -14243,7 +14942,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -14251,7 +14950,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -14259,7 +14958,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -14267,7 +14966,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -14275,7 +14974,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -14283,7 +14982,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -14291,7 +14990,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -14299,7 +14998,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -14307,7 +15006,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -14315,7 +15014,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -14323,7 +15022,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -14331,7 +15030,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -14339,7 +15038,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -14347,7 +15046,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -14355,7 +15054,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -14363,7 +15062,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -14371,7 +15070,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -14379,7 +15078,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -14387,7 +15086,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -14395,7 +15094,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -14403,7 +15102,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -14411,7 +15110,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -14419,7 +15118,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -14427,7 +15126,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -14435,7 +15134,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -14443,7 +15142,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -14451,7 +15150,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -14459,7 +15158,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -14467,7 +15166,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -14475,7 +15174,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -14483,7 +15182,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -14491,7 +15190,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -14499,7 +15198,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -14507,7 +15206,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -14515,7 +15214,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -14523,7 +15222,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -14531,7 +15230,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -14539,7 +15238,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -14547,7 +15246,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -14555,7 +15254,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -14563,7 +15262,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -14571,7 +15270,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -14579,7 +15278,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -14587,7 +15286,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -14595,7 +15294,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -14603,7 +15302,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -14611,7 +15310,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -14619,7 +15318,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -14627,7 +15326,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -14635,7 +15334,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -14643,7 +15342,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -14651,7 +15350,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -14659,7 +15358,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -14667,7 +15366,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -14675,7 +15374,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -14683,7 +15382,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -14691,7 +15390,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -14699,7 +15398,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -14707,7 +15406,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -14715,7 +15414,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -14723,7 +15422,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -14731,7 +15430,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -14739,7 +15438,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -14747,7 +15446,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -14755,7 +15454,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -14763,7 +15462,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -14771,7 +15470,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -14779,7 +15478,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -14787,7 +15486,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -14795,7 +15494,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -14803,7 +15502,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -14811,7 +15510,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -14819,7 +15518,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -14827,7 +15526,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -14835,7 +15534,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -14843,7 +15542,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -14851,7 +15550,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -14859,7 +15558,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -14867,7 +15566,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -14875,7 +15574,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -14883,7 +15582,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -14891,7 +15590,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -14899,7 +15598,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -14907,7 +15606,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -14915,7 +15614,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -14923,7 +15622,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -14931,7 +15630,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -14939,7 +15638,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -14947,7 +15646,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -14955,7 +15654,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -14963,7 +15662,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -14971,7 +15670,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -14979,7 +15678,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -14987,7 +15686,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -14995,7 +15694,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -15003,7 +15702,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -15011,7 +15710,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -15019,7 +15718,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -15027,7 +15726,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -15035,7 +15734,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -15043,7 +15742,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -15051,7 +15750,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -15059,7 +15758,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -15067,7 +15766,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -15075,7 +15774,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -15083,7 +15782,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -15091,7 +15790,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -15099,7 +15798,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -15107,7 +15806,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -15115,7 +15814,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -15123,7 +15822,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -15131,7 +15830,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -15139,7 +15838,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -15147,7 +15846,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -15155,7 +15854,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -15163,7 +15862,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -15171,7 +15870,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -15179,7 +15878,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -15187,7 +15886,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -15195,7 +15894,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -15203,7 +15902,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -15211,7 +15910,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -15219,7 +15918,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -15227,7 +15926,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -15235,7 +15934,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -15243,7 +15942,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -15251,7 +15950,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -15259,7 +15958,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -15267,7 +15966,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -15275,7 +15974,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -15283,7 +15982,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -15291,7 +15990,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -15299,7 +15998,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -15307,7 +16006,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -15315,7 +16014,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -15323,7 +16022,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -15331,7 +16030,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -15339,7 +16038,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -15347,7 +16046,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -15355,7 +16054,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -15363,7 +16062,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -15371,7 +16070,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -15379,7 +16078,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -15387,7 +16086,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -15395,7 +16094,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -15403,7 +16102,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -15411,7 +16110,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -15419,7 +16118,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -15427,7 +16126,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -15435,7 +16134,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -15443,7 +16142,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -15451,7 +16150,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -15459,7 +16158,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -15467,7 +16166,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -15475,7 +16174,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -15483,7 +16182,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -15491,7 +16190,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -15499,7 +16198,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -15507,7 +16206,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -15515,7 +16214,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -15523,7 +16222,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -15531,7 +16230,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -15539,7 +16238,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -15547,7 +16246,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -15555,7 +16254,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -15563,7 +16262,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -15571,7 +16270,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -15579,7 +16278,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -15587,7 +16286,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -15595,7 +16294,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -15603,7 +16302,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -15611,7 +16310,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -15619,7 +16318,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -15627,7 +16326,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -15635,7 +16334,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -15643,7 +16342,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -15651,7 +16350,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -15659,7 +16358,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -15667,7 +16366,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -15675,7 +16374,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -15683,7 +16382,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -15691,7 +16390,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -15699,7 +16398,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -15707,7 +16406,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -15715,7 +16414,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -15723,7 +16422,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -15731,7 +16430,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -15739,7 +16438,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -15747,7 +16446,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -15755,7 +16454,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -15763,7 +16462,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -15771,7 +16470,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -15779,7 +16478,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -15787,7 +16486,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -15795,7 +16494,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -15803,7 +16502,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -15811,7 +16510,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -15819,7 +16518,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -15827,7 +16526,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -15835,7 +16534,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -15843,7 +16542,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -15851,7 +16550,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -15859,7 +16558,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -15867,7 +16566,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -15875,7 +16574,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -15883,7 +16582,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -15891,7 +16590,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -15899,7 +16598,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -15907,7 +16606,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -15915,7 +16614,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -15923,7 +16622,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -15931,7 +16630,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -15939,7 +16638,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -15947,7 +16646,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -15955,7 +16654,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -15963,7 +16662,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -15971,7 +16670,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -15979,7 +16678,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -15987,7 +16686,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -15995,7 +16694,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -16003,7 +16702,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -16011,7 +16710,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -16019,7 +16718,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -16027,7 +16726,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -16035,7 +16734,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -16043,7 +16742,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -16051,7 +16750,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -16059,7 +16758,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -16067,7 +16766,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -16075,7 +16774,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -16083,7 +16782,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -16091,7 +16790,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -16099,7 +16798,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -16107,7 +16806,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -16115,7 +16814,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -16123,7 +16822,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -16131,7 +16830,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -16139,7 +16838,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -16147,7 +16846,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -16155,7 +16854,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -16163,7 +16862,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -16171,7 +16870,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -16179,7 +16878,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -16187,7 +16886,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -16195,7 +16894,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -16203,7 +16902,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -16211,7 +16910,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -16219,7 +16918,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -16227,7 +16926,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -16235,7 +16934,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -16243,7 +16942,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -16251,7 +16950,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -16259,7 +16958,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -16267,7 +16966,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -16275,7 +16974,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -16283,7 +16982,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -16291,7 +16990,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -16299,7 +16998,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -16307,7 +17006,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -16315,7 +17014,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -16323,7 +17022,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -16331,7 +17030,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -16339,7 +17038,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -16347,7 +17046,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -16355,7 +17054,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -16363,7 +17062,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -16371,7 +17070,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -16379,7 +17078,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -16387,7 +17086,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -16395,7 +17094,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -16403,7 +17102,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -16411,7 +17110,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -16419,7 +17118,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -16427,7 +17126,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -16435,7 +17134,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -16443,7 +17142,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -16451,7 +17150,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -16459,7 +17158,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -16467,7 +17166,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -16475,7 +17174,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -16483,7 +17182,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -16491,7 +17190,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -16499,7 +17198,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -16507,7 +17206,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -16515,7 +17214,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -16523,7 +17222,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -16531,7 +17230,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -16539,7 +17238,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -16547,7 +17246,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -16555,7 +17254,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -16563,7 +17262,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -16571,7 +17270,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -16579,7 +17278,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -16587,7 +17286,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -16595,7 +17294,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -16603,7 +17302,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -16611,7 +17310,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -16619,7 +17318,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -16627,7 +17326,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -16635,7 +17334,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -16643,7 +17342,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -16651,7 +17350,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -16659,7 +17358,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -16667,7 +17366,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -16675,7 +17374,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -16683,7 +17382,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -16691,7 +17390,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -16699,7 +17398,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -16707,7 +17406,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -16715,7 +17414,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -16723,7 +17422,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -16731,7 +17430,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -16739,7 +17438,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -16747,7 +17446,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -16755,7 +17454,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -16763,7 +17462,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -16771,7 +17470,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -16779,7 +17478,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -16787,7 +17486,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -16795,7 +17494,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -16803,7 +17502,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -16811,7 +17510,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -16819,7 +17518,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -16827,7 +17526,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -16835,7 +17534,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -16843,7 +17542,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -16851,7 +17550,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -16859,7 +17558,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B370">
         <v>1</v>
@@ -16867,7 +17566,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -16875,7 +17574,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -16883,7 +17582,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -16891,7 +17590,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -16899,7 +17598,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -16907,7 +17606,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -16915,7 +17614,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -16923,7 +17622,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -16931,7 +17630,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -16939,7 +17638,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -16947,7 +17646,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -16955,7 +17654,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -16963,7 +17662,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -16971,7 +17670,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -16979,7 +17678,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -16987,7 +17686,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -16995,7 +17694,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -17003,7 +17702,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -17011,7 +17710,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -17019,7 +17718,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -17027,7 +17726,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -17035,7 +17734,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="B392">
         <v>1</v>
@@ -17043,7 +17742,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -17051,7 +17750,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -17059,7 +17758,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -17067,7 +17766,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -17075,7 +17774,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -17083,7 +17782,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -17091,7 +17790,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -17099,7 +17798,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -17107,7 +17806,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -17115,7 +17814,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -17123,7 +17822,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -17131,7 +17830,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -17139,7 +17838,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -17147,7 +17846,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -17155,7 +17854,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -17163,7 +17862,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -17171,7 +17870,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="B409">
         <v>1</v>
@@ -17179,7 +17878,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -17187,7 +17886,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -17195,7 +17894,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -17203,7 +17902,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -17211,7 +17910,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -17219,7 +17918,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -17227,7 +17926,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -17235,7 +17934,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -17243,7 +17942,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -17251,7 +17950,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -17259,7 +17958,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -17267,7 +17966,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -17275,7 +17974,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -17283,7 +17982,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -17291,7 +17990,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -17299,7 +17998,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -17307,7 +18006,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -17315,7 +18014,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -17323,7 +18022,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -17331,7 +18030,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -17339,7 +18038,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -17347,7 +18046,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -17355,7 +18054,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -17363,7 +18062,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -17371,7 +18070,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -17379,7 +18078,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B435">
         <v>1</v>
@@ -17387,7 +18086,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -17395,7 +18094,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -17403,7 +18102,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -17411,7 +18110,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -17419,7 +18118,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -17427,7 +18126,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -17435,7 +18134,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -17443,7 +18142,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -17451,7 +18150,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -17459,7 +18158,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B445">
         <v>1</v>
@@ -17467,7 +18166,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -17475,7 +18174,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -17483,7 +18182,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -17491,7 +18190,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -17499,7 +18198,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -17507,7 +18206,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -17515,7 +18214,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -17523,7 +18222,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -17531,7 +18230,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -17539,7 +18238,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -17547,7 +18246,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -17555,7 +18254,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B457">
         <v>1</v>
@@ -17563,7 +18262,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -17571,7 +18270,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -17579,7 +18278,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -17587,7 +18286,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="B461">
         <v>1</v>
@@ -17595,7 +18294,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B462">
         <v>1</v>
@@ -17603,7 +18302,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -17611,7 +18310,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -17619,7 +18318,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -17627,7 +18326,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -17635,7 +18334,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -17643,7 +18342,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -17651,7 +18350,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -17659,7 +18358,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -17667,7 +18366,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -17675,7 +18374,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -17683,7 +18382,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -17691,7 +18390,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -17699,7 +18398,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -17707,7 +18406,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -17715,7 +18414,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -17723,7 +18422,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -17731,7 +18430,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -17739,7 +18438,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -17747,7 +18446,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -17755,7 +18454,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="B482">
         <v>1</v>
@@ -17763,7 +18462,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="B483">
         <v>1</v>
@@ -17771,7 +18470,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -17779,7 +18478,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -17787,7 +18486,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -17795,7 +18494,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -17803,7 +18502,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -17811,7 +18510,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -17819,7 +18518,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -17827,7 +18526,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="B491">
         <v>1</v>
@@ -17835,7 +18534,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B492">
         <v>1</v>
@@ -17843,7 +18542,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -17851,7 +18550,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -17859,7 +18558,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -17867,7 +18566,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -17875,7 +18574,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="B497">
         <v>1</v>
@@ -17883,7 +18582,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B498">
         <v>1</v>
@@ -17891,7 +18590,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B499">
         <v>1</v>
@@ -17899,7 +18598,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B500">
         <v>1</v>
@@ -17907,7 +18606,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B501">
         <v>1</v>
@@ -17915,7 +18614,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B502">
         <v>1</v>
@@ -17923,7 +18622,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -17931,7 +18630,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -17939,7 +18638,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -17947,7 +18646,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -17955,7 +18654,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="B507">
         <v>1</v>
@@ -17963,7 +18662,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="B508">
         <v>1</v>
@@ -17971,7 +18670,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B509">
         <v>1</v>
@@ -17979,7 +18678,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -17987,7 +18686,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -17995,7 +18694,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -18003,7 +18702,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="B513">
         <v>1</v>
@@ -18011,7 +18710,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -18019,7 +18718,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -18027,7 +18726,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -18035,7 +18734,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -18043,7 +18742,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -18051,7 +18750,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -18059,7 +18758,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -18067,7 +18766,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -18075,7 +18774,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -18083,7 +18782,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -18091,7 +18790,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -18099,7 +18798,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="B525">
         <v>1</v>
@@ -18107,7 +18806,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B526">
         <v>1</v>
@@ -18115,7 +18814,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -18123,7 +18822,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -18131,7 +18830,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -18139,7 +18838,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -18147,7 +18846,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -18155,7 +18854,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -18163,7 +18862,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -18171,7 +18870,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -18179,7 +18878,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -18187,7 +18886,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -18195,7 +18894,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -18203,7 +18902,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -18211,7 +18910,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -18219,7 +18918,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -18227,7 +18926,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="B541">
         <v>1</v>
@@ -18235,7 +18934,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -18243,7 +18942,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -18251,7 +18950,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -18259,7 +18958,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="B545">
         <v>1</v>
@@ -18267,7 +18966,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -18275,7 +18974,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="B547">
         <v>1</v>
@@ -18283,7 +18982,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -18291,7 +18990,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -18299,7 +18998,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -18307,7 +19006,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="B551">
         <v>1</v>
@@ -18315,7 +19014,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="B552">
         <v>1</v>
@@ -18323,7 +19022,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -18331,7 +19030,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -18339,7 +19038,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -18347,7 +19046,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -18355,7 +19054,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -18363,7 +19062,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -18371,7 +19070,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -18379,7 +19078,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -18387,7 +19086,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -18395,7 +19094,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="B562">
         <v>1</v>
@@ -18403,7 +19102,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -18411,7 +19110,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -18419,7 +19118,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -18427,7 +19126,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -18435,7 +19134,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="B567">
         <v>1</v>
@@ -18443,7 +19142,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="B568">
         <v>1</v>
@@ -18451,7 +19150,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="B569">
         <v>1</v>
@@ -18459,7 +19158,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B570">
         <v>1</v>
@@ -18467,7 +19166,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="B571">
         <v>1</v>
@@ -18475,7 +19174,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="B572">
         <v>1</v>
@@ -18483,7 +19182,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -18491,7 +19190,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -18499,7 +19198,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -18507,7 +19206,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -18515,7 +19214,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -18523,7 +19222,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -18531,7 +19230,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="B579">
         <v>1</v>
@@ -18539,7 +19238,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="B580">
         <v>1</v>
@@ -18547,7 +19246,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="B581">
         <v>1</v>
@@ -18555,7 +19254,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="B582">
         <v>1</v>
@@ -18563,7 +19262,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="B583">
         <v>1</v>
@@ -18571,7 +19270,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="B584">
         <v>1</v>
@@ -18579,7 +19278,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="B585">
         <v>1</v>
@@ -18587,7 +19286,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="B586">
         <v>1</v>
@@ -18595,7 +19294,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="B587">
         <v>1</v>
@@ -18603,7 +19302,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B588">
         <v>1</v>
@@ -18611,7 +19310,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="B589">
         <v>1</v>
@@ -18619,7 +19318,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="B590">
         <v>1</v>
@@ -18627,7 +19326,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="B591">
         <v>1</v>
@@ -18635,7 +19334,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="B592">
         <v>1</v>
@@ -18643,7 +19342,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="B593">
         <v>1</v>
@@ -18651,7 +19350,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="B594">
         <v>1</v>
@@ -18659,7 +19358,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="B595">
         <v>1</v>
@@ -18667,7 +19366,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -18675,7 +19374,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="B597">
         <v>1</v>
@@ -18683,7 +19382,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="B598">
         <v>1</v>
@@ -18691,7 +19390,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -18699,7 +19398,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -18707,7 +19406,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="B601">
         <v>1</v>
@@ -18715,7 +19414,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="B602">
         <v>1</v>
@@ -18723,7 +19422,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="B603">
         <v>1</v>
@@ -18731,7 +19430,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="B604">
         <v>1</v>
@@ -18739,7 +19438,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="B605">
         <v>1</v>
@@ -18747,7 +19446,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="B606">
         <v>1</v>
@@ -18755,7 +19454,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -18777,27 +19476,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>2984</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -18807,17 +19506,17 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
     </row>
   </sheetData>
@@ -18833,8 +19532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H344"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18844,16 +19543,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="A1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -22599,22 +23298,22 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -22652,27 +23351,45 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C47"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="7.08984375" customWidth="1"/>
+    <col min="10" max="10" width="7.6328125" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.453125" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" customWidth="1"/>
+    <col min="16" max="16" width="6.453125" customWidth="1"/>
+    <col min="17" max="17" width="5.7265625" customWidth="1"/>
+    <col min="18" max="18" width="4.54296875" customWidth="1"/>
+    <col min="19" max="19" width="5" customWidth="1"/>
+    <col min="20" max="20" width="6.1796875" customWidth="1"/>
+    <col min="21" max="21" width="5.90625" customWidth="1"/>
+    <col min="22" max="22" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -22686,37 +23403,37 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -22751,7 +23468,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2054</v>
       </c>
@@ -22762,7 +23479,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2055</v>
       </c>
@@ -22773,7 +23490,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2046</v>
       </c>
@@ -22784,7 +23501,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2057</v>
       </c>
@@ -22794,8 +23511,14 @@
       <c r="C20">
         <v>163</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E20" s="39" t="s">
+        <v>2986</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2051</v>
       </c>
@@ -22805,8 +23528,20 @@
       <c r="C21">
         <v>163</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E21" s="39" t="s">
+        <v>2984</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2351</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2350</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2058</v>
       </c>
@@ -22816,8 +23551,20 @@
       <c r="C22">
         <v>162</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E22" s="40" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F22" s="41">
+        <v>169</v>
+      </c>
+      <c r="G22" s="41">
+        <v>143</v>
+      </c>
+      <c r="H22" s="41">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2054</v>
       </c>
@@ -22827,8 +23574,20 @@
       <c r="C23">
         <v>161</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E23" s="40" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F23" s="41">
+        <v>161</v>
+      </c>
+      <c r="G23" s="41">
+        <v>174</v>
+      </c>
+      <c r="H23" s="41">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2048</v>
       </c>
@@ -22838,8 +23597,20 @@
       <c r="C24">
         <v>157</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E24" s="40" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F24" s="41">
+        <v>129</v>
+      </c>
+      <c r="G24" s="41">
+        <v>140</v>
+      </c>
+      <c r="H24" s="41">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2048</v>
       </c>
@@ -22849,8 +23620,20 @@
       <c r="C25">
         <v>153</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E25" s="40" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F25" s="41">
+        <v>131</v>
+      </c>
+      <c r="G25" s="41">
+        <v>139</v>
+      </c>
+      <c r="H25" s="41">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2049</v>
       </c>
@@ -22860,8 +23643,20 @@
       <c r="C26">
         <v>153</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E26" s="40" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F26" s="41">
+        <v>142</v>
+      </c>
+      <c r="G26" s="41">
+        <v>127</v>
+      </c>
+      <c r="H26" s="41">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2057</v>
       </c>
@@ -22871,8 +23666,20 @@
       <c r="C27">
         <v>149</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E27" s="40" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F27" s="41">
+        <v>130</v>
+      </c>
+      <c r="G27" s="41">
+        <v>164</v>
+      </c>
+      <c r="H27" s="41">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2060</v>
       </c>
@@ -22882,8 +23689,20 @@
       <c r="C28">
         <v>148</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E28" s="40" t="s">
+        <v>2058</v>
+      </c>
+      <c r="F28" s="41">
+        <v>162</v>
+      </c>
+      <c r="G28" s="41">
+        <v>138</v>
+      </c>
+      <c r="H28" s="41">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2056</v>
       </c>
@@ -22893,8 +23712,20 @@
       <c r="C29">
         <v>148</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E29" s="40" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F29" s="41">
+        <v>157</v>
+      </c>
+      <c r="G29" s="41">
+        <v>153</v>
+      </c>
+      <c r="H29" s="41">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2049</v>
       </c>
@@ -22904,8 +23735,20 @@
       <c r="C30">
         <v>147</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E30" s="40" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F30" s="41">
+        <v>153</v>
+      </c>
+      <c r="G30" s="41">
+        <v>147</v>
+      </c>
+      <c r="H30" s="41">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2055</v>
       </c>
@@ -22915,8 +23758,20 @@
       <c r="C31">
         <v>143</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E31" s="40" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F31" s="41">
+        <v>128</v>
+      </c>
+      <c r="G31" s="41">
+        <v>148</v>
+      </c>
+      <c r="H31" s="41">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2050</v>
       </c>
@@ -22926,8 +23781,20 @@
       <c r="C32">
         <v>142</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E32" s="40" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F32" s="41">
+        <v>112</v>
+      </c>
+      <c r="G32" s="41">
+        <v>136</v>
+      </c>
+      <c r="H32" s="41">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2061</v>
       </c>
@@ -22937,8 +23804,20 @@
       <c r="C33">
         <v>140</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E33" s="40" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F33" s="41">
+        <v>122</v>
+      </c>
+      <c r="G33" s="41">
+        <v>110</v>
+      </c>
+      <c r="H33" s="41">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2053</v>
       </c>
@@ -22948,8 +23827,20 @@
       <c r="C34">
         <v>139</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E34" s="40" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F34" s="41">
+        <v>148</v>
+      </c>
+      <c r="G34" s="41">
+        <v>127</v>
+      </c>
+      <c r="H34" s="41">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2058</v>
       </c>
@@ -22959,8 +23850,20 @@
       <c r="C35">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E35" s="40" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F35" s="41">
+        <v>149</v>
+      </c>
+      <c r="G35" s="41">
+        <v>163</v>
+      </c>
+      <c r="H35" s="41">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2047</v>
       </c>
@@ -22970,8 +23873,20 @@
       <c r="C36">
         <v>136</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E36" s="40" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F36" s="41">
+        <v>163</v>
+      </c>
+      <c r="G36" s="41">
+        <v>181</v>
+      </c>
+      <c r="H36" s="41">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>2053</v>
       </c>
@@ -22981,8 +23896,20 @@
       <c r="C37">
         <v>131</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E37" s="40" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F37" s="41">
+        <v>114</v>
+      </c>
+      <c r="G37" s="41">
+        <v>121</v>
+      </c>
+      <c r="H37" s="41">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>2046</v>
       </c>
@@ -22992,8 +23919,20 @@
       <c r="C38">
         <v>130</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E38" s="40" t="s">
+        <v>2985</v>
+      </c>
+      <c r="F38" s="41">
+        <v>2270</v>
+      </c>
+      <c r="G38" s="41">
+        <v>2311</v>
+      </c>
+      <c r="H38" s="41">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>2061</v>
       </c>
@@ -23004,7 +23943,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>2060</v>
       </c>
@@ -23015,7 +23954,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>2050</v>
       </c>
@@ -23026,7 +23965,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>2056</v>
       </c>
@@ -23037,7 +23976,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>2052</v>
       </c>
@@ -23048,7 +23987,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2059</v>
       </c>
@@ -23059,7 +23998,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>2059</v>
       </c>
@@ -23070,7 +24009,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>2047</v>
       </c>
@@ -23081,7 +24020,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>2052</v>
       </c>
@@ -23097,10 +24036,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -23110,22 +24049,22 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -23165,22 +24104,22 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G3" sqref="G3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -23221,7 +24160,7 @@
   <dimension ref="A1:H1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23230,16 +24169,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -34284,22 +35223,22 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="1" t="s">
         <v>2036</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -34332,28 +35271,32 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1008"/>
+  <dimension ref="A1:I1008"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>2044</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -34474,7 +35417,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -34485,7 +35428,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -34496,7 +35439,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -34507,7 +35450,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -34518,7 +35461,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -34529,7 +35472,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -34540,7 +35483,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -34550,8 +35493,20 @@
       <c r="C23" t="s">
         <v>2049</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E23" s="39" t="s">
+        <v>2984</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2988</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>2989</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -34561,8 +35516,20 @@
       <c r="C24" t="s">
         <v>2049</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E24" s="40" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F24" s="41">
+        <v>64</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>2051</v>
+      </c>
+      <c r="I24" s="41">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -34572,8 +35539,20 @@
       <c r="C25" t="s">
         <v>2052</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E25" s="40" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F25" s="41">
+        <v>66</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>2049</v>
+      </c>
+      <c r="I25" s="41">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -34583,8 +35562,20 @@
       <c r="C26" t="s">
         <v>2054</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E26" s="40" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F26" s="41">
+        <v>60</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>2048</v>
+      </c>
+      <c r="I26" s="41">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -34594,8 +35585,20 @@
       <c r="C27" t="s">
         <v>2055</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E27" s="40" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F27" s="41">
+        <v>57</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>2046</v>
+      </c>
+      <c r="I27" s="41">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -34605,8 +35608,20 @@
       <c r="C28" t="s">
         <v>2052</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E28" s="40" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F28" s="41">
+        <v>58</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I28" s="41">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -34616,8 +35631,20 @@
       <c r="C29" t="s">
         <v>2055</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E29" s="40" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F29" s="41">
+        <v>68</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>2055</v>
+      </c>
+      <c r="I29" s="41">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -34627,8 +35654,20 @@
       <c r="C30" t="s">
         <v>2056</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E30" s="40" t="s">
+        <v>2058</v>
+      </c>
+      <c r="F30" s="41">
+        <v>62</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I30" s="41">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -34638,8 +35677,20 @@
       <c r="C31" t="s">
         <v>2054</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E31" s="40" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F31" s="41">
+        <v>69</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I31" s="41">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -34649,8 +35700,20 @@
       <c r="C32" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E32" s="40" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F32" s="41">
+        <v>73</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>2060</v>
+      </c>
+      <c r="I32" s="41">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -34660,8 +35723,20 @@
       <c r="C33" t="s">
         <v>2056</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E33" s="40" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F33" s="41">
+        <v>61</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>2057</v>
+      </c>
+      <c r="I33" s="41">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -34671,8 +35746,20 @@
       <c r="C34" t="s">
         <v>2057</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E34" s="40" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F34" s="41">
+        <v>56</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>2061</v>
+      </c>
+      <c r="I34" s="41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -34682,8 +35769,20 @@
       <c r="C35" t="s">
         <v>2051</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E35" s="40" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F35" s="41">
+        <v>51</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>2050</v>
+      </c>
+      <c r="I35" s="41">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -34693,8 +35792,20 @@
       <c r="C36" t="s">
         <v>2050</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E36" s="40" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F36" s="41">
+        <v>63</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>2053</v>
+      </c>
+      <c r="I36" s="41">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -34704,8 +35815,20 @@
       <c r="C37" t="s">
         <v>2055</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E37" s="40" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F37" s="41">
+        <v>61</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I37" s="41">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -34715,8 +35838,20 @@
       <c r="C38" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E38" s="40" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F38" s="41">
+        <v>74</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>2047</v>
+      </c>
+      <c r="I38" s="41">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -34726,8 +35861,20 @@
       <c r="C39" t="s">
         <v>2048</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E39" s="40" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F39" s="41">
+        <v>57</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>2052</v>
+      </c>
+      <c r="I39" s="45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -34737,8 +35884,20 @@
       <c r="C40" t="s">
         <v>2056</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E40" s="40" t="s">
+        <v>2985</v>
+      </c>
+      <c r="F40" s="41">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>2985</v>
+      </c>
+      <c r="I40" s="43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -34749,7 +35908,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -34760,7 +35919,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>104</v>
       </c>
@@ -34771,7 +35930,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>106</v>
       </c>
@@ -34782,7 +35941,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>108</v>
       </c>
@@ -34793,7 +35952,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -34804,7 +35963,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>112</v>
       </c>
@@ -34815,7 +35974,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>114</v>
       </c>
@@ -45387,14 +46546,19 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="H23:I23">
+    <sortState ref="H24:I40">
+      <sortCondition descending="1" ref="I23"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>